--- a/src/assets/csv/data/excel.xlsx
+++ b/src/assets/csv/data/excel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -572,7 +572,7 @@
         <v>my answer 2</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <v>{}</v>
@@ -593,12 +593,65 @@
         <v>0</v>
       </c>
       <c r="Q4" t="str">
+        <v>{}</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>what is the LOL means?</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Explanation for the question 4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Note for the question 4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Suggest for the question 4</v>
+      </c>
+      <c r="E5" t="str">
+        <v>{ important:true, data: 'ok' }</v>
+      </c>
+      <c r="F5" t="str">
+        <v>answer 1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>{}</v>
+      </c>
+      <c r="I5" t="str">
+        <v>answer 2</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <v>{}</v>
+      </c>
+      <c r="L5" t="str">
+        <v>answer 3</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <v>{}</v>
+      </c>
+      <c r="O5" t="str">
+        <v>answer 4</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
         <v>{}</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q5"/>
   </ignoredErrors>
 </worksheet>
 </file>